--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -104,12 +104,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -436,233 +525,233 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>288925</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>41604</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>110468</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>26050</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>66152</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>44651</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>108274</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>47890</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>14221</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>13991</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>10294</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>21878</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>200438</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>83189</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>69287</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>11924</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>19790</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>16248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>152547</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>54715</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>51628</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>7710</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>13182</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>25312</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>898826</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>209702</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>276686</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>97485</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>190290</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>124663</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>3720984</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>15024</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>574304</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>775220</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>1532821</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>823615</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1384297</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>193546</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>470053</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>206942</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>336041</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>177715</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1014712</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>241525</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>483335</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>47861</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>142792</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>99199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1000867</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>104674</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>279641</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>202757</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>271805</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="8">
         <v>141990</v>
       </c>
     </row>
